--- a/result.xlsx
+++ b/result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t xml:space="preserve">inner OpenCV</t>
   </si>
@@ -34,6 +34,9 @@
   <si>
     <t xml:space="preserve">outer OpenMP</t>
   </si>
+  <si>
+    <t xml:space="preserve">forEach</t>
+  </si>
 </sst>
 </file>
 
@@ -42,11 +45,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -62,6 +66,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,9 +117,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -119,8 +134,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,28 +184,28 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -194,22 +213,22 @@
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -327,13 +346,196 @@
         <v>31.65</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>46.07</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>9.03</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -458,7 +660,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/result.xlsx
+++ b/result.xlsx
@@ -162,7 +162,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpenMP" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t xml:space="preserve">inner OpenCV</t>
   </si>
@@ -35,15 +35,77 @@
     <t xml:space="preserve">outer OpenMP</t>
   </si>
   <si>
-    <t xml:space="preserve">forEach</t>
+    <t xml:space="preserve">cv::forEach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV(TBB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total of PARALLEL FOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output Iteration Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04152673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04152637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01423567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01243567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04265371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06241735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67204315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01624735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03675124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05213476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57412360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27514063</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -69,7 +131,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="15"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -117,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,6 +204,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -159,10 +233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,196 +420,14 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>46.07</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>23.55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>12.29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>9.03</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>9.2</v>
-      </c>
-    </row>
+    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="5">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -552,109 +444,1650 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <v>8</v>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0.897</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>4.887</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.901</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4.896</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.902</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.894</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4.948</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0.894</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.895</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>4.852</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.896</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>5.094</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.896</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM(C4:C11)/8</f>
+        <v>4.935</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM(E4:E11)/8</f>
+        <v>2.495875</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM(G4:G11)/8</f>
+        <v>1.26425</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM(I4:I11)/8</f>
+        <v>0.896875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM(C4:C11)</f>
+        <v>39.48</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM(E4:E11)</f>
+        <v>19.967</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM(G4:G11)</f>
+        <v>10.114</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM(I4:I11)</f>
+        <v>7.175</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>4.946</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>4.929</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>8</v>
+      <c r="B24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>5.016</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>4.999</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>6.353</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>5.014</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>4.931</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0.892</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>4.942</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>4.968</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.891</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM(C20:C27)/8</f>
+        <v>4.94825</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM(E20:E27)/8</f>
+        <v>3.433375</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM(G20:G27)/8</f>
+        <v>2.339125</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM(I20:I27)/8</f>
+        <v>1.632375</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM(C20:C27)</f>
+        <v>39.586</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM(E20:E27)</f>
+        <v>27.467</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM(G20:G27)</f>
+        <v>18.713</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM(I20:I27)</f>
+        <v>13.059</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>5.049</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>5.049</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>5.048</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>5.064</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>5.103</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>6.229</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>5.049</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>5.008</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>5.369</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>5.043</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>5.061</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>6.315</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>5.021</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>5.408</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>5.047</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>5.059</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>6.127</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>5.005</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="n">
+        <f aca="false">SUM(C38:C45)/8</f>
+        <v>5.045875</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="n">
+        <f aca="false">SUM(E38:E45)/8</f>
+        <v>4.673875</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="n">
+        <f aca="false">SUM(G38:G45)/8</f>
+        <v>3.63575</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7" t="n">
+        <f aca="false">SUM(I38:I45)/8</f>
+        <v>4.129625</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="n">
+        <f aca="false">SUM(C38:C45)</f>
+        <v>40.367</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="n">
+        <f aca="false">SUM(E38:E45)</f>
+        <v>37.391</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="n">
+        <f aca="false">SUM(G38:G45)</f>
+        <v>29.086</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7" t="n">
+        <f aca="false">SUM(I38:I45)</f>
+        <v>33.037</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="53" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>7.815</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7" t="n">
+        <v>7.808</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>7.209</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>7.302</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>7.909</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="n">
+        <v>7.648</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="n">
+        <v>7.209</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>7.262</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <v>7.739</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="7" t="n">
+        <v>1.616</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="n">
+        <v>7.172</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>7.908</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" s="7" t="n">
+        <v>7.925</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="7" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" s="7" t="n">
+        <v>7.796</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>7.203</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" s="7" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" s="7" t="n">
+        <v>2.693</v>
+      </c>
+      <c r="H61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" s="7" t="n">
+        <v>7.685</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" s="7" t="n">
+        <v>8.006</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="7" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="7" t="n">
+        <v>7.867</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>7.255</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7" t="n">
+        <v>7.871</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" s="7" t="n">
+        <v>6.845</v>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" s="7" t="n">
+        <v>6.286</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="n">
+        <f aca="false">SUM(C56:C63)/8</f>
+        <v>7.211375</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="n">
+        <f aca="false">SUM(E56:E63)/8</f>
+        <v>7.084</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="n">
+        <f aca="false">SUM(G56:G63)/8</f>
+        <v>7.027875</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7" t="n">
+        <f aca="false">SUM(I56:I63)/8</f>
+        <v>6.828875</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="n">
+        <f aca="false">SUM(C56:C63)</f>
+        <v>57.691</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="n">
+        <f aca="false">SUM(E56:E63)</f>
+        <v>56.672</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="n">
+        <f aca="false">SUM(G56:G63)</f>
+        <v>56.223</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7" t="n">
+        <f aca="false">SUM(I56:I63)</f>
+        <v>54.631</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -137,12 +137,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,15 +210,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,6 +231,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -446,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,28 +620,28 @@
       <c r="A4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>4.87</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>2.497</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="n">
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>1.269</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <v>0.897</v>
       </c>
     </row>
@@ -583,28 +649,28 @@
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>4.887</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>2.49</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>1.262</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>0.901</v>
       </c>
     </row>
@@ -612,28 +678,28 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>4.896</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="n">
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>2.496</v>
       </c>
-      <c r="F6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="n">
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>1.262</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <v>0.902</v>
       </c>
     </row>
@@ -641,28 +707,28 @@
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>5.058</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="n">
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="n">
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>1.262</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>0.894</v>
       </c>
     </row>
@@ -670,28 +736,28 @@
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>4.948</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="n">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>2.502</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="n">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>1.265</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <v>0.894</v>
       </c>
     </row>
@@ -699,28 +765,28 @@
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>4.875</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>2.493</v>
       </c>
-      <c r="F9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>1.262</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <v>0.895</v>
       </c>
     </row>
@@ -728,28 +794,28 @@
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>4.852</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>2.496</v>
       </c>
-      <c r="F10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="n">
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>1.262</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <v>0.896</v>
       </c>
     </row>
@@ -757,28 +823,28 @@
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>5.094</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="n">
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>2.493</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="n">
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>1.27</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>0.896</v>
       </c>
     </row>
@@ -786,23 +852,23 @@
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="n">
         <f aca="false">SUM(C4:C11)/8</f>
         <v>4.935</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="n">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="n">
         <f aca="false">SUM(E4:E11)/8</f>
         <v>2.495875</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="n">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="n">
         <f aca="false">SUM(G4:G11)/8</f>
         <v>1.26425</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="n">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="n">
         <f aca="false">SUM(I4:I11)/8</f>
         <v>0.896875</v>
       </c>
@@ -811,23 +877,23 @@
       <c r="A13" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="n">
         <f aca="false">SUM(C4:C11)</f>
         <v>39.48</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="n">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="n">
         <f aca="false">SUM(E4:E11)</f>
         <v>19.967</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="n">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="n">
         <f aca="false">SUM(G4:G11)</f>
         <v>10.114</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="n">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="n">
         <f aca="false">SUM(I4:I11)</f>
         <v>7.175</v>
       </c>
@@ -853,16 +919,16 @@
       <c r="A15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -954,28 +1020,28 @@
       <c r="A20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="n">
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="n">
         <v>4.946</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <v>2.483</v>
       </c>
-      <c r="F20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="n">
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>1.492</v>
       </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <v>1.001</v>
       </c>
     </row>
@@ -983,28 +1049,28 @@
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="n">
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="n">
         <v>4.94</v>
       </c>
-      <c r="D21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="n">
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
         <v>2.503</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>1.515</v>
       </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <v>1.009</v>
       </c>
     </row>
@@ -1012,28 +1078,28 @@
       <c r="A22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="n">
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="n">
         <v>4.929</v>
       </c>
-      <c r="D22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>4.96</v>
       </c>
-      <c r="F22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>1.511</v>
       </c>
-      <c r="H22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <v>1.011</v>
       </c>
     </row>
@@ -1041,28 +1107,28 @@
       <c r="A23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="n">
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>4.941</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="n">
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>2.501</v>
       </c>
-      <c r="F23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="n">
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>1.488</v>
       </c>
-      <c r="H23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="n">
         <v>1.002</v>
       </c>
     </row>
@@ -1070,28 +1136,28 @@
       <c r="A24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="n">
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="n">
         <v>5.016</v>
       </c>
-      <c r="D24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>4.999</v>
       </c>
-      <c r="F24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="n">
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>5.15</v>
       </c>
-      <c r="H24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7" t="n">
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
         <v>6.353</v>
       </c>
     </row>
@@ -1099,28 +1165,28 @@
       <c r="A25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="n">
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <v>4.941</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="n">
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <v>2.528</v>
       </c>
-      <c r="F25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="n">
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>5.014</v>
       </c>
-      <c r="H25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7" t="n">
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1128,28 +1194,28 @@
       <c r="A26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="n">
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="n">
         <v>4.931</v>
       </c>
-      <c r="D26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="n">
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>2.525</v>
       </c>
-      <c r="F26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7" t="n">
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>1.271</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7" t="n">
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="n">
         <v>0.892</v>
       </c>
     </row>
@@ -1157,28 +1223,28 @@
       <c r="A27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="n">
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="n">
         <v>4.942</v>
       </c>
-      <c r="D27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="n">
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <v>4.968</v>
       </c>
-      <c r="F27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="n">
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="n">
         <v>1.272</v>
       </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7" t="n">
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="n">
         <v>0.891</v>
       </c>
     </row>
@@ -1186,23 +1252,23 @@
       <c r="A28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="n">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="n">
         <f aca="false">SUM(C20:C27)/8</f>
         <v>4.94825</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="n">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="n">
         <f aca="false">SUM(E20:E27)/8</f>
         <v>3.433375</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="n">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="n">
         <f aca="false">SUM(G20:G27)/8</f>
         <v>2.339125</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="n">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="n">
         <f aca="false">SUM(I20:I27)/8</f>
         <v>1.632375</v>
       </c>
@@ -1211,23 +1277,23 @@
       <c r="A29" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="n">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="n">
         <f aca="false">SUM(C20:C27)</f>
         <v>39.586</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="n">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="n">
         <f aca="false">SUM(E20:E27)</f>
         <v>27.467</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="n">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="n">
         <f aca="false">SUM(G20:G27)</f>
         <v>18.713</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="n">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="n">
         <f aca="false">SUM(I20:I27)</f>
         <v>13.059</v>
       </c>
@@ -1253,30 +1319,30 @@
       <c r="A31" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -1366,28 +1432,28 @@
       <c r="A38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7" t="n">
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="n">
         <v>5.049</v>
       </c>
-      <c r="D38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="n">
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
         <v>3.586</v>
       </c>
-      <c r="F38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="n">
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
         <v>6.167</v>
       </c>
-      <c r="H38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="n">
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="n">
         <v>1.206</v>
       </c>
     </row>
@@ -1395,28 +1461,28 @@
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7" t="n">
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>5.049</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7" t="n">
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="n">
         <v>3.587</v>
       </c>
-      <c r="F39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7" t="n">
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
         <v>1.519</v>
       </c>
-      <c r="H39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7" t="n">
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6" t="n">
         <v>1.258</v>
       </c>
     </row>
@@ -1424,28 +1490,28 @@
       <c r="A40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="n">
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="n">
         <v>5.048</v>
       </c>
-      <c r="D40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7" t="n">
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="n">
         <v>5.064</v>
       </c>
-      <c r="F40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7" t="n">
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>5.103</v>
       </c>
-      <c r="H40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="7" t="n">
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="n">
         <v>6.229</v>
       </c>
     </row>
@@ -1453,28 +1519,28 @@
       <c r="A41" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="n">
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="n">
         <v>5.049</v>
       </c>
-      <c r="D41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7" t="n">
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="n">
         <v>5.008</v>
       </c>
-      <c r="F41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="n">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="n">
         <v>1.474</v>
       </c>
-      <c r="H41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7" t="n">
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="n">
         <v>5.369</v>
       </c>
     </row>
@@ -1482,28 +1548,28 @@
       <c r="A42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="n">
+      <c r="B42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6" t="n">
         <v>5.043</v>
       </c>
-      <c r="D42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7" t="n">
+      <c r="D42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="n">
         <v>5.061</v>
       </c>
-      <c r="F42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7" t="n">
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6" t="n">
         <v>6.17</v>
       </c>
-      <c r="H42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="7" t="n">
+      <c r="H42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6" t="n">
         <v>6.315</v>
       </c>
     </row>
@@ -1511,28 +1577,28 @@
       <c r="A43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7" t="n">
+      <c r="B43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="n">
         <v>5.041</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="n">
+      <c r="D43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="n">
         <v>5.021</v>
       </c>
-      <c r="F43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7" t="n">
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6" t="n">
         <v>5.054</v>
       </c>
-      <c r="H43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7" t="n">
+      <c r="H43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="6" t="n">
         <v>5.408</v>
       </c>
     </row>
@@ -1540,28 +1606,28 @@
       <c r="A44" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="6" t="n">
         <v>5.047</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="6" t="n">
         <v>5.059</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="0" t="n">
         <v>1.795</v>
       </c>
-      <c r="H44" s="6" t="n">
+      <c r="H44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="7" t="n">
+      <c r="I44" s="6" t="n">
         <v>6.127</v>
       </c>
     </row>
@@ -1569,28 +1635,28 @@
       <c r="A45" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="6" t="n">
+      <c r="B45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="6" t="n">
         <v>5.041</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="6" t="n">
         <v>5.005</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="6" t="n">
         <v>1.804</v>
       </c>
-      <c r="H45" s="6" t="n">
+      <c r="H45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="6" t="n">
         <v>1.125</v>
       </c>
     </row>
@@ -1598,23 +1664,23 @@
       <c r="A46" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="n">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="n">
         <f aca="false">SUM(C38:C45)/8</f>
         <v>5.045875</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="n">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="n">
         <f aca="false">SUM(E38:E45)/8</f>
         <v>4.673875</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="n">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="n">
         <f aca="false">SUM(G38:G45)/8</f>
         <v>3.63575</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7" t="n">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="n">
         <f aca="false">SUM(I38:I45)/8</f>
         <v>4.129625</v>
       </c>
@@ -1623,23 +1689,23 @@
       <c r="A47" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="n">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="n">
         <f aca="false">SUM(C38:C45)</f>
         <v>40.367</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="n">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="n">
         <f aca="false">SUM(E38:E45)</f>
         <v>37.391</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="n">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="n">
         <f aca="false">SUM(G38:G45)</f>
         <v>29.086</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7" t="n">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="n">
         <f aca="false">SUM(I38:I45)</f>
         <v>33.037</v>
       </c>
@@ -1648,16 +1714,16 @@
       <c r="A48" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="8" t="n">
         <v>12.02</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="8" t="n">
         <v>11.95</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="8" t="n">
         <v>13.51</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="8" t="n">
         <v>13.68</v>
       </c>
     </row>
@@ -1665,30 +1731,30 @@
       <c r="A49" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="53" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
@@ -1778,28 +1844,28 @@
       <c r="A56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="7" t="n">
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="n">
         <v>7.145</v>
       </c>
-      <c r="D56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="7" t="n">
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="n">
         <v>4.032</v>
       </c>
-      <c r="F56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7" t="n">
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
         <v>7.815</v>
       </c>
-      <c r="H56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7" t="n">
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6" t="n">
         <v>7.808</v>
       </c>
     </row>
@@ -1807,28 +1873,28 @@
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7" t="n">
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="n">
         <v>7.209</v>
       </c>
-      <c r="D57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7" t="n">
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6" t="n">
         <v>7.302</v>
       </c>
-      <c r="F57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="n">
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="n">
         <v>7.909</v>
       </c>
-      <c r="H57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7" t="n">
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="n">
         <v>7.648</v>
       </c>
     </row>
@@ -1836,28 +1902,28 @@
       <c r="A58" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="n">
+      <c r="B58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="n">
         <v>7.209</v>
       </c>
-      <c r="D58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" s="7" t="n">
+      <c r="D58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="n">
         <v>7.262</v>
       </c>
-      <c r="F58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" s="7" t="n">
+      <c r="F58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="6" t="n">
         <v>7.739</v>
       </c>
-      <c r="H58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" s="7" t="n">
+      <c r="H58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="6" t="n">
         <v>1.616</v>
       </c>
     </row>
@@ -1865,28 +1931,28 @@
       <c r="A59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B59" s="6" t="n">
+      <c r="B59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="6" t="n">
         <v>7.172</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="6" t="n">
         <v>7.456</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G59" s="7" t="n">
+      <c r="G59" s="6" t="n">
         <v>7.908</v>
       </c>
-      <c r="H59" s="6" t="n">
+      <c r="H59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I59" s="7" t="n">
+      <c r="I59" s="6" t="n">
         <v>7.925</v>
       </c>
     </row>
@@ -1894,28 +1960,28 @@
       <c r="A60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B60" s="6" t="n">
+      <c r="B60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="6" t="n">
         <v>7.3</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="6" t="n">
         <v>7.49</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G60" s="7" t="n">
+      <c r="G60" s="6" t="n">
         <v>7.566</v>
       </c>
-      <c r="H60" s="6" t="n">
+      <c r="H60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I60" s="7" t="n">
+      <c r="I60" s="6" t="n">
         <v>7.796</v>
       </c>
     </row>
@@ -1923,28 +1989,28 @@
       <c r="A61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B61" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="n">
+      <c r="B61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="6" t="n">
         <v>7.203</v>
       </c>
-      <c r="D61" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E61" s="7" t="n">
+      <c r="D61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6" t="n">
         <v>7.253</v>
       </c>
-      <c r="F61" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" s="7" t="n">
+      <c r="F61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6" t="n">
         <v>2.693</v>
       </c>
-      <c r="H61" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I61" s="7" t="n">
+      <c r="H61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" s="6" t="n">
         <v>7.685</v>
       </c>
     </row>
@@ -1952,28 +2018,28 @@
       <c r="A62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B62" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="n">
+      <c r="B62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" s="6" t="n">
         <v>7.198</v>
       </c>
-      <c r="D62" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E62" s="7" t="n">
+      <c r="D62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6" t="n">
         <v>8.006</v>
       </c>
-      <c r="F62" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G62" s="7" t="n">
+      <c r="F62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6" t="n">
         <v>7.748</v>
       </c>
-      <c r="H62" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I62" s="7" t="n">
+      <c r="H62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="6" t="n">
         <v>7.867</v>
       </c>
     </row>
@@ -1981,28 +2047,28 @@
       <c r="A63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B63" s="6" t="n">
+      <c r="B63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="6" t="n">
         <v>7.255</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="6" t="n">
         <v>7.871</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G63" s="7" t="n">
+      <c r="G63" s="6" t="n">
         <v>6.845</v>
       </c>
-      <c r="H63" s="6" t="n">
+      <c r="H63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I63" s="7" t="n">
+      <c r="I63" s="6" t="n">
         <v>6.286</v>
       </c>
     </row>
@@ -2010,23 +2076,23 @@
       <c r="A64" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="n">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="n">
         <f aca="false">SUM(C56:C63)/8</f>
         <v>7.211375</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="n">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="n">
         <f aca="false">SUM(E56:E63)/8</f>
         <v>7.084</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7" t="n">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="n">
         <f aca="false">SUM(G56:G63)/8</f>
         <v>7.027875</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7" t="n">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="n">
         <f aca="false">SUM(I56:I63)/8</f>
         <v>6.828875</v>
       </c>
@@ -2035,23 +2101,23 @@
       <c r="A65" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="n">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="n">
         <f aca="false">SUM(C56:C63)</f>
         <v>57.691</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="n">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="n">
         <f aca="false">SUM(E56:E63)</f>
         <v>56.672</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="n">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="n">
         <f aca="false">SUM(G56:G63)</f>
         <v>56.223</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7" t="n">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6" t="n">
         <f aca="false">SUM(I56:I63)</f>
         <v>54.631</v>
       </c>
@@ -2060,16 +2126,16 @@
       <c r="A66" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="8" t="n">
         <v>8.8</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="8" t="n">
         <v>9.23</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="8" t="n">
         <v>9.25</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66" s="8" t="n">
         <v>9.33</v>
       </c>
     </row>
@@ -2077,16 +2143,16 @@
       <c r="A67" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="7" t="s">
         <v>24</v>
       </c>
     </row>
